--- a/fields_data.xlsx
+++ b/fields_data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -673,6 +673,102 @@
         </is>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Микрофоны на площадке</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Дата и время монтажа</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Аудиомикшер на площадке</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Дублирующие экраны-суфлеры</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>4авуа</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Доп. аренда</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>апвпы</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Получены доступы к каналу/соц-сетям</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Создана/получена эфирная графика</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Созданы и согласованы титры GT Tittle</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
